--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.3795981416362</v>
+        <v>252.5862830779367</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.5938592621976</v>
+        <v>345.5996958274243</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.8227962028671</v>
+        <v>312.6161459099774</v>
       </c>
       <c r="AD2" t="n">
-        <v>174379.5981416362</v>
+        <v>252586.2830779367</v>
       </c>
       <c r="AE2" t="n">
-        <v>238593.8592621975</v>
+        <v>345599.6958274243</v>
       </c>
       <c r="AF2" t="n">
         <v>1.023539307540631e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215822.7962028671</v>
+        <v>312616.1459099774</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.3869594121407</v>
+        <v>218.9066083045782</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.7660724720012</v>
+        <v>299.5176789601527</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.1280473098285</v>
+        <v>270.9321320559868</v>
       </c>
       <c r="AD3" t="n">
-        <v>150386.9594121407</v>
+        <v>218906.6083045782</v>
       </c>
       <c r="AE3" t="n">
-        <v>205766.0724720013</v>
+        <v>299517.6789601527</v>
       </c>
       <c r="AF3" t="n">
         <v>1.158537022565937e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186128.0473098285</v>
+        <v>270932.1320559867</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.0149087325621</v>
+        <v>216.778752783318</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.8887722015989</v>
+        <v>296.6062531616057</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.4299139424253</v>
+        <v>268.2985686494404</v>
       </c>
       <c r="AD2" t="n">
-        <v>149014.9087325621</v>
+        <v>216778.752783318</v>
       </c>
       <c r="AE2" t="n">
-        <v>203888.7722015989</v>
+        <v>296606.2531616057</v>
       </c>
       <c r="AF2" t="n">
         <v>1.246154405473689e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>184429.9139424253</v>
+        <v>268298.5686494404</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.8523508102649</v>
+        <v>215.5147096345355</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.2981091638768</v>
+        <v>294.8767335597944</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.9910615525133</v>
+        <v>266.7341119710294</v>
       </c>
       <c r="AD3" t="n">
-        <v>147852.3508102649</v>
+        <v>215514.7096345355</v>
       </c>
       <c r="AE3" t="n">
-        <v>202298.1091638768</v>
+        <v>294876.7335597944</v>
       </c>
       <c r="AF3" t="n">
         <v>1.291301008883153e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>182991.0615525133</v>
+        <v>266734.1119710294</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.0822016240198</v>
+        <v>197.1819376734546</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.0348923693586</v>
+        <v>269.7930261778383</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.6119131678545</v>
+        <v>244.0443584163948</v>
       </c>
       <c r="AD2" t="n">
-        <v>141082.2016240198</v>
+        <v>197181.9376734546</v>
       </c>
       <c r="AE2" t="n">
-        <v>193034.8923693586</v>
+        <v>269793.0261778383</v>
       </c>
       <c r="AF2" t="n">
         <v>1.824301673757201e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174611.9131678545</v>
+        <v>244044.3584163948</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.8541881002582</v>
+        <v>200.1980135808287</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.1452053887014</v>
+        <v>273.9197542941836</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.6660840323653</v>
+        <v>247.7772373932167</v>
       </c>
       <c r="AD2" t="n">
-        <v>133854.1881002582</v>
+        <v>200198.0135808287</v>
       </c>
       <c r="AE2" t="n">
-        <v>183145.2053887014</v>
+        <v>273919.7542941836</v>
       </c>
       <c r="AF2" t="n">
         <v>1.60189217686481e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>165666.0840323653</v>
+        <v>247777.2373932167</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.4110060909779</v>
+        <v>204.1697084292173</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.7482889131082</v>
+        <v>279.3540024045564</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.5435399361999</v>
+        <v>252.6928484909525</v>
       </c>
       <c r="AD2" t="n">
-        <v>139411.0060909779</v>
+        <v>204169.7084292173</v>
       </c>
       <c r="AE2" t="n">
-        <v>190748.2889131082</v>
+        <v>279354.0024045564</v>
       </c>
       <c r="AF2" t="n">
         <v>2.01206354787732e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>172543.5399361999</v>
+        <v>252692.8484909525</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.8360671739217</v>
+        <v>227.7312482580037</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.6947585768771</v>
+        <v>311.5919406600616</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.8228377583841</v>
+        <v>281.8540431655929</v>
       </c>
       <c r="AD2" t="n">
-        <v>159836.0671739217</v>
+        <v>227731.2482580037</v>
       </c>
       <c r="AE2" t="n">
-        <v>218694.7585768771</v>
+        <v>311591.9406600616</v>
       </c>
       <c r="AF2" t="n">
         <v>1.195412519566456e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197822.8377583841</v>
+        <v>281854.0431655929</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.567669790911</v>
+        <v>216.4286854562122</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.2768401508425</v>
+        <v>296.1272756007792</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.8763838277409</v>
+        <v>267.8653040347698</v>
       </c>
       <c r="AD3" t="n">
-        <v>148567.669790911</v>
+        <v>216428.6854562122</v>
       </c>
       <c r="AE3" t="n">
-        <v>203276.8401508425</v>
+        <v>296127.2756007792</v>
       </c>
       <c r="AF3" t="n">
         <v>1.254308268246585e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>183876.3838277409</v>
+        <v>267865.3040347698</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.9022539054215</v>
+        <v>212.1615626396158</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.3663887802393</v>
+        <v>290.2888099109424</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.0528246581213</v>
+        <v>262.5840533160311</v>
       </c>
       <c r="AD2" t="n">
-        <v>147902.2539054215</v>
+        <v>212161.5626396158</v>
       </c>
       <c r="AE2" t="n">
-        <v>202366.3887802393</v>
+        <v>290288.8099109424</v>
       </c>
       <c r="AF2" t="n">
         <v>2.11199405971887e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>183052.8246581213</v>
+        <v>262584.0533160311</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.8284990826078</v>
+        <v>202.9134401489775</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.8465447752041</v>
+        <v>277.6351207208883</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.1096113791747</v>
+        <v>251.1380144627074</v>
       </c>
       <c r="AD2" t="n">
-        <v>135828.4990826078</v>
+        <v>202913.4401489775</v>
       </c>
       <c r="AE2" t="n">
-        <v>185846.5447752041</v>
+        <v>277635.1207208883</v>
       </c>
       <c r="AF2" t="n">
         <v>1.441106073629077e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>168109.6113791747</v>
+        <v>251138.0144627074</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.873310031966</v>
+        <v>202.9582510983357</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.9078570930355</v>
+        <v>277.6964330387197</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.1650721354447</v>
+        <v>251.1934752189774</v>
       </c>
       <c r="AD3" t="n">
-        <v>135873.310031966</v>
+        <v>202958.2510983357</v>
       </c>
       <c r="AE3" t="n">
-        <v>185907.8570930355</v>
+        <v>277696.4330387197</v>
       </c>
       <c r="AF3" t="n">
         <v>1.440869439983278e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>168165.0721354447</v>
+        <v>251193.4752189774</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.5948084742259</v>
+        <v>216.1524415082347</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.3139724946282</v>
+        <v>295.7493064441337</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.9099723127513</v>
+        <v>267.5234077239513</v>
       </c>
       <c r="AD2" t="n">
-        <v>148594.808474226</v>
+        <v>216152.4415082347</v>
       </c>
       <c r="AE2" t="n">
-        <v>203313.9724946282</v>
+        <v>295749.3064441336</v>
       </c>
       <c r="AF2" t="n">
         <v>1.275873849111373e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>183909.9723127513</v>
+        <v>267523.4077239513</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.992381540017</v>
+        <v>204.8657697516723</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.1214612691577</v>
+        <v>280.3063842139973</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.9267112814302</v>
+        <v>253.5543363171768</v>
       </c>
       <c r="AD3" t="n">
-        <v>146992.3815400171</v>
+        <v>204865.7697516723</v>
       </c>
       <c r="AE3" t="n">
-        <v>201121.4612691577</v>
+        <v>280306.3842139973</v>
       </c>
       <c r="AF3" t="n">
         <v>1.345630274217563e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>181926.7112814302</v>
+        <v>253554.3363171768</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.8843854319092</v>
+        <v>240.9528998272969</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.8656020997639</v>
+        <v>329.6823876352597</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.5956218292635</v>
+        <v>298.2179632715856</v>
       </c>
       <c r="AD2" t="n">
-        <v>162884.3854319092</v>
+        <v>240952.8998272969</v>
       </c>
       <c r="AE2" t="n">
-        <v>222865.6020997639</v>
+        <v>329682.3876352597</v>
       </c>
       <c r="AF2" t="n">
         <v>1.075221827347626e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>201595.6218292635</v>
+        <v>298217.9632715856</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.8430186424319</v>
+        <v>218.1828634798293</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.021828713913</v>
+        <v>298.5274193615636</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.4548331314593</v>
+        <v>270.0363814436486</v>
       </c>
       <c r="AD3" t="n">
-        <v>149843.0186424319</v>
+        <v>218182.8634798293</v>
       </c>
       <c r="AE3" t="n">
-        <v>205021.828713913</v>
+        <v>298527.4193615636</v>
       </c>
       <c r="AF3" t="n">
         <v>1.183827544544937e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>185454.8331314593</v>
+        <v>270036.3814436486</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.6428659774838</v>
+        <v>201.2468944831446</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.2243092543333</v>
+        <v>275.3548794180911</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.6421997395934</v>
+        <v>249.0753961895096</v>
       </c>
       <c r="AD2" t="n">
-        <v>134642.8659774838</v>
+        <v>201246.8944831446</v>
       </c>
       <c r="AE2" t="n">
-        <v>184224.3092543333</v>
+        <v>275354.879418091</v>
       </c>
       <c r="AF2" t="n">
         <v>1.536843080056255e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>166642.1997395934</v>
+        <v>249075.3961895096</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.9308182844507</v>
+        <v>198.3032641074072</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.1960071224842</v>
+        <v>271.3272744742023</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.6622127585771</v>
+        <v>245.4321802086853</v>
       </c>
       <c r="AD2" t="n">
-        <v>141930.8182844507</v>
+        <v>198303.2641074072</v>
       </c>
       <c r="AE2" t="n">
-        <v>194196.0071224842</v>
+        <v>271327.2744742023</v>
       </c>
       <c r="AF2" t="n">
         <v>1.736768874616635e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175662.2127585771</v>
+        <v>245432.1802086853</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.3162844775608</v>
+        <v>205.3565711746409</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.9869307396941</v>
+        <v>280.9779203735331</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.6639675253015</v>
+        <v>254.1617820081537</v>
       </c>
       <c r="AD2" t="n">
-        <v>140316.2844775608</v>
+        <v>205356.5711746408</v>
       </c>
       <c r="AE2" t="n">
-        <v>191986.9307396941</v>
+        <v>280977.9203735331</v>
       </c>
       <c r="AF2" t="n">
         <v>1.906289647135612e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>173663.9675253015</v>
+        <v>254161.7820081537</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.3056495554044</v>
+        <v>229.1458879464298</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.8642854401913</v>
+        <v>313.5275130912636</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.4533781982504</v>
+        <v>283.6048872805547</v>
       </c>
       <c r="AD2" t="n">
-        <v>156305.6495554044</v>
+        <v>229145.8879464297</v>
       </c>
       <c r="AE2" t="n">
-        <v>213864.2854401913</v>
+        <v>313527.5130912636</v>
       </c>
       <c r="AF2" t="n">
         <v>2.20198117705937e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>193453.3781982504</v>
+        <v>283604.8872805547</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.5435017666873</v>
+        <v>204.2329585310661</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.5072841601104</v>
+        <v>279.4405439843035</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.3711503736671</v>
+        <v>252.7711306637904</v>
       </c>
       <c r="AD2" t="n">
-        <v>146543.5017666873</v>
+        <v>204232.9585310661</v>
       </c>
       <c r="AE2" t="n">
-        <v>200507.2841601104</v>
+        <v>279440.5439843035</v>
       </c>
       <c r="AF2" t="n">
         <v>1.375552283004765e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>181371.1503736672</v>
+        <v>252771.1306637904</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.2852956664293</v>
+        <v>203.974752430808</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.1539951824883</v>
+        <v>279.0872550066814</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.051578800225</v>
+        <v>252.4515590903482</v>
       </c>
       <c r="AD3" t="n">
-        <v>146285.2956664293</v>
+        <v>203974.752430808</v>
       </c>
       <c r="AE3" t="n">
-        <v>200153.9951824883</v>
+        <v>279087.2550066814</v>
       </c>
       <c r="AF3" t="n">
         <v>1.390438730428733e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>181051.578800225</v>
+        <v>252451.5590903482</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.1339187332678</v>
+        <v>229.2209004762819</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.4705363375435</v>
+        <v>313.6301485439266</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.4291377818928</v>
+        <v>283.6977273496652</v>
       </c>
       <c r="AD2" t="n">
-        <v>161133.9187332678</v>
+        <v>229220.9004762819</v>
       </c>
       <c r="AE2" t="n">
-        <v>220470.5363375435</v>
+        <v>313630.1485439265</v>
       </c>
       <c r="AF2" t="n">
         <v>1.140735602496674e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>199429.1377818928</v>
+        <v>283697.7273496652</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.0818136607706</v>
+        <v>217.1346299850039</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.9803144760108</v>
+        <v>297.0931800491462</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.5127195506478</v>
+        <v>268.7390239182404</v>
       </c>
       <c r="AD3" t="n">
-        <v>149081.8136607706</v>
+        <v>217134.6299850039</v>
       </c>
       <c r="AE3" t="n">
-        <v>203980.3144760108</v>
+        <v>297093.1800491462</v>
       </c>
       <c r="AF3" t="n">
         <v>1.224921269903649e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>184512.7195506478</v>
+        <v>268739.0239182404</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.9307367403767</v>
+        <v>264.1590994801887</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.9797072906272</v>
+        <v>361.434133785775</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.2672580334956</v>
+        <v>326.9393673332526</v>
       </c>
       <c r="AD2" t="n">
-        <v>173930.7367403767</v>
+        <v>264159.0994801887</v>
       </c>
       <c r="AE2" t="n">
-        <v>237979.7072906272</v>
+        <v>361434.133785775</v>
       </c>
       <c r="AF2" t="n">
         <v>2.226467360957008e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215267.2580334955</v>
+        <v>326939.3673332526</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.1471584148522</v>
+        <v>199.2147480196723</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.1778161811812</v>
+        <v>272.5744069747949</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.7910210930712</v>
+        <v>246.5602881337833</v>
       </c>
       <c r="AD2" t="n">
-        <v>133147.1584148522</v>
+        <v>199214.7480196723</v>
       </c>
       <c r="AE2" t="n">
-        <v>182177.8161811811</v>
+        <v>272574.4069747949</v>
       </c>
       <c r="AF2" t="n">
         <v>1.667995099905767e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>164791.0210930712</v>
+        <v>246560.2881337833</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.9538088300904</v>
+        <v>202.2503421358992</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.3321961519569</v>
+        <v>276.7278407655752</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.4036497122559</v>
+        <v>250.3173240329538</v>
       </c>
       <c r="AD2" t="n">
-        <v>144953.8088300904</v>
+        <v>202250.3421358991</v>
       </c>
       <c r="AE2" t="n">
-        <v>198332.1961519569</v>
+        <v>276727.8407655752</v>
       </c>
       <c r="AF2" t="n">
         <v>1.479965818467885e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179403.6497122559</v>
+        <v>250317.3240329538</v>
       </c>
     </row>
   </sheetData>
